--- a/biology/Zoologie/Chilomycterus/Chilomycterus.xlsx
+++ b/biology/Zoologie/Chilomycterus/Chilomycterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chilomycterus est un genre de poissons de l'ordre des Tetraodontiformes, appartenant à la famille des poissons porc-épic.
 Comme l'ensemble des membres de cette famille, ces poissons possèdent la capacité de gonfler leur corps, qui est couvert d'épines, et leurs dents sont fusionnées en une structure ressemblant à un bec.
 Leurs épines, qui sont toutes inamovibles, permettent de distinguer les membres de ce genre des autres Diodontidae. Cependant, c'est aussi le cas des genres Cyclichthys. 
-La taxinomie de ce groupe est très incertaine, et aucune étude cladistique ne permet d'objectiver la situation. Leis [1] divise le genre en deux parties: d'un côté les Chylomycterus "stricto-sensu" constitué que d'une seule espèce, Chilomycterus reticulatus, qui est un poisson des eaux tropicales, et d'un autre côté les Chylomycterus de l'océan atlantique. 
+La taxinomie de ce groupe est très incertaine, et aucune étude cladistique ne permet d'objectiver la situation. Leis  divise le genre en deux parties: d'un côté les Chylomycterus "stricto-sensu" constitué que d'une seule espèce, Chilomycterus reticulatus, qui est un poisson des eaux tropicales, et d'un autre côté les Chylomycterus de l'océan atlantique. 
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chilomycterus reticulatus (Linnaeus, 1758) est l'espèce-type, dont Chilomycterus affinis Günther, 1870 et Chilomycterus atringa (Linnaeus, 1758) sont deux probables synonymes. Il s'agit d'une espèce des eaux tropicales.
 Chilomycterus antennatus (Cuvier, 1816)
-Chilomycterus antillarum Jordan et Rutter, 1897, dont Chilomycterus geometricus (Bloch et Schneider, 1801) est un probable synonyme[2].
-Chilomycterus schoepfii (Walbaum, 1792), dont Chilomycterus geometricus, var. lineatus (Bloch et Schneider, 1801) est un probable synonyme[2].
+Chilomycterus antillarum Jordan et Rutter, 1897, dont Chilomycterus geometricus (Bloch et Schneider, 1801) est un probable synonyme.
+Chilomycterus schoepfii (Walbaum, 1792), dont Chilomycterus geometricus, var. lineatus (Bloch et Schneider, 1801) est un probable synonyme.
 Chilomycterus spinosus (Linnaeus, 1758), divisé par Leis en deux sous-espèces: spinosus spinosus et spinosus mauretanicus.</t>
         </is>
       </c>
